--- a/biology/Zoologie/Grabouillon_(série_télévisée_d'animation)/Grabouillon_(série_télévisée_d'animation).xlsx
+++ b/biology/Zoologie/Grabouillon_(série_télévisée_d'animation)/Grabouillon_(série_télévisée_d'animation).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Grabouillon_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e_d%27animation)</t>
+          <t>Grabouillon_(série_télévisée_d'animation)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Grabouillon est une série télévisée d'animation 3D française en 260 épisodes de 6 minutes et demie, créée par Philippe Poirier et Patrick Regnard d'après la série de bande dessinée éponyme d'Alexis Nesme et diffusée depuis le 23 octobre 2006 sur France 5 dans Les Zouzous et Zouzous.
-Au Québec, elle a été diffusée à partir du 11 avril 2010 à Télé-Québec[1].
+Au Québec, elle a été diffusée à partir du 11 avril 2010 à Télé-Québec.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Grabouillon_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e_d%27animation)</t>
+          <t>Grabouillon_(série_télévisée_d'animation)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette série destinée aux jeunes enfants à partir de 4 ans[2] met en scène les mésaventures de Grabouillon, un chien qui passe le plus clair de son temps à faire des bêtises, et de sa maîtresse Pétunia. Les saisons 1 et 2 se déroulent dans la maison familiale et son grand jardin, à la campagne. Les saisons 3 et 4 se déroulent pendant les vacances d'été sur l'île imaginaire de Kouroukoukou. Pour la saison 5, les protagonistes sont de retour à la maison et Pétunia fait sa rentrée au CP[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette série destinée aux jeunes enfants à partir de 4 ans met en scène les mésaventures de Grabouillon, un chien qui passe le plus clair de son temps à faire des bêtises, et de sa maîtresse Pétunia. Les saisons 1 et 2 se déroulent dans la maison familiale et son grand jardin, à la campagne. Les saisons 3 et 4 se déroulent pendant les vacances d'été sur l'île imaginaire de Kouroukoukou. Pour la saison 5, les protagonistes sont de retour à la maison et Pétunia fait sa rentrée au CP.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Grabouillon_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e_d%27animation)</t>
+          <t>Grabouillon_(série_télévisée_d'animation)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Grabouillon
 Création : Philippe Poirier et Patrick Regnard
@@ -554,10 +570,7 @@
 Nombre d’épisodes : 260 (5 saisons)
 Format : SÉCAM (16:10, 16:9)
 Durée : 6 min 30 s
-Date de première diffusion : France : 23 octobre 2006
-Production technique
-Coopérations: Autodesk, Adobe, Avid Technology, Next Limit Technologies (en), Liquid Dream Solutions
-Logiciels: Autodesk 3ds Max, Adobe Photoshop, Adobe After Effects, Adobe Premiere Pro, Avid DS (en) (anciennement), Media Composer, RealFlow (en), Butterfly Net Render</t>
+Date de première diffusion : France : 23 octobre 2006</t>
         </is>
       </c>
     </row>
@@ -567,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Grabouillon_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e_d%27animation)</t>
+          <t>Grabouillon_(série_télévisée_d'animation)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,10 +595,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Fiche technique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Production technique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Coopérations: Autodesk, Adobe, Avid Technology, Next Limit Technologies (en), Liquid Dream Solutions
+Logiciels: Autodesk 3ds Max, Adobe Photoshop, Adobe After Effects, Adobe Premiere Pro, Avid DS (en) (anciennement), Media Composer, RealFlow (en), Butterfly Net Render</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Grabouillon_(série_télévisée_d'animation)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grabouillon_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e_d%27animation)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Distribution des voix</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Michel Elias : Grabouillon (chien jaune et noir)
 Sandrine Le Berre : Pétunia (petite fille aux cheveux noirs)
@@ -598,38 +650,44 @@
 Gabriel Le Doze : Gonzague, cousin de Grabouillon (chien orange et noir)
 Marie Facundo : Anowak (petit garçon aux cheveux noirs)
 Voix additionnelles : La famille Pucekipik (puces rouges)
- Source et légende : version française (VF) sur RS Doublage[4]
+ Source et légende : version française (VF) sur RS Doublage
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Grabouillon_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e_d%27animation)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Grabouillon_(série_télévisée_d'animation)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Grabouillon_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e_d%27animation)</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Épisodes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Première saison (2006-2007)
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Première saison (2006-2007)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
  Peinture fraîche
  La Surprise du chef
  La Fiesta
@@ -682,8 +740,43 @@
  L'Ambassadeur de Koubaia
  Entre chien et loup
  La Tête à l'envers
-Deuxième saison (2007-2008)
-Cette saison est diffusée sur France 5 dans L'été des Zouzous entre le 28 août 2007 au 25 novembre 2008.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Grabouillon_(série_télévisée_d'animation)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grabouillon_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e_d%27animation)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Deuxième saison (2007-2008)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette saison est diffusée sur France 5 dans L'été des Zouzous entre le 28 août 2007 au 25 novembre 2008.
  Toujours plus haut
  Qui vole un œuf
  Croc de lait
@@ -736,8 +829,43 @@
  Constellation Grabouillon
  Bonne fête Pétunia
  Une vie de chien
-Troisième saison (2011) : Les grandes vacances, partie 1
-Cette saison est diffusée sur France 5 dans Zouzous depuis le 20 juin 2011.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Grabouillon_(série_télévisée_d'animation)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grabouillon_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e_d%27animation)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Troisième saison (2011) : Les grandes vacances, partie 1</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette saison est diffusée sur France 5 dans Zouzous depuis le 20 juin 2011.
  Sens interdit
  Panne de soleil
  Bain de mer
@@ -790,8 +918,43 @@
  Question pour Grabouillon
  Le Radeau de l’abuse
  La Créature du lagon bleu
-Quatrième saison (2013) : Les grandes vacances, partie 2
-Cette saison est diffusée sur France 5 dans Zouzous depuis le 25 juillet 2013.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Grabouillon_(série_télévisée_d'animation)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grabouillon_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e_d%27animation)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Quatrième saison (2013) : Les grandes vacances, partie 2</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette saison est diffusée sur France 5 dans Zouzous depuis le 25 juillet 2013.
  L'Aventurier
  Tatou sitter
  La Pièce manquante
@@ -844,8 +1007,43 @@
  Les Olympiades de kouroukoukou
  L'Argent de poche
  Accusé
-Cinquième saison (2016) : Pas d'école pour Grabouillon
-Cette saison est diffusée sur Piwi+ depuis le 22 juin 2016.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Grabouillon_(série_télévisée_d'animation)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grabouillon_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e_d%27animation)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Cinquième saison (2016) : Pas d'école pour Grabouillon</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette saison est diffusée sur Piwi+ depuis le 22 juin 2016.
  Les maths, c'est pas du gâteau
  Un vrai bras cassé
  Le Roi du bassin
@@ -903,66 +1101,73 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Grabouillon_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e_d%27animation)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Grabouillon_(série_télévisée_d'animation)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Grabouillon_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e_d%27animation)</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>Autour de la série</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>La série est produite dans les studios de Blue Spirit à Angoulême et Paris[5].
-Elle a été adaptée et traduite à destination du public anglophone sous le nom de Loopdidoo[6].
-Deux longs-métrages hors-saisons ont été réalisés : L'incroyable Noël de Grabouillon, le film (49 minutes, 2011) et Le Trésor du Capitaine Nem’os (52 minutes, 2013)[7].</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Grabouillon_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e_d%27animation)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>La série est produite dans les studios de Blue Spirit à Angoulême et Paris.
+Elle a été adaptée et traduite à destination du public anglophone sous le nom de Loopdidoo.
+Deux longs-métrages hors-saisons ont été réalisés : L'incroyable Noël de Grabouillon, le film (49 minutes, 2011) et Le Trésor du Capitaine Nem’os (52 minutes, 2013).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Grabouillon_(série_télévisée_d'animation)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Grabouillon_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e_d%27animation)</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>Produits dérivés</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>DVD
-Grabouillon, volume 1 (saison 1) : Au royaume des bêtises (28 août 2007)
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>DVD</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Grabouillon, volume 1 (saison 1) : Au royaume des bêtises (28 août 2007)
 Grabouillon, volume 2 (saison 1) : Le Trésor de Grabouillon des bois (5 février 2008)
 Grabouillon, volume 3 (saison 1) : Pique-nique panique ! (2 juillet 2008)
 Grabouillon, volume 4 (saison 1) : C'est bientôt Noël ! (25 novembre 2008)
